--- a/Task3/in.xlsx
+++ b/Task3/in.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gorshenin_mv\RiderProjects\DotnetPractice\Task3\bin\Debug\net45\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gorshenin_mv\RiderProjects\DotnetPractice\Task3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="0" windowWidth="28800" windowHeight="12915"/>
+    <workbookView xWindow="6510" yWindow="0" windowWidth="28800" windowHeight="12915"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -23,13 +23,116 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+  <si>
+    <t>Бумага</t>
+  </si>
+  <si>
+    <t>Файлы</t>
+  </si>
+  <si>
+    <t>Степлер</t>
+  </si>
+  <si>
+    <t>Скобы для степлера</t>
+  </si>
+  <si>
+    <t>Дырокол</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Скрепки </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>канцелярские</t>
+    </r>
+  </si>
+  <si>
+    <t>Ножницы</t>
+  </si>
+  <si>
+    <t>Бумажные блоки для записей</t>
+  </si>
+  <si>
+    <t>Альбом</t>
+  </si>
+  <si>
+    <t>Калькулятор</t>
+  </si>
+  <si>
+    <t>Корзина для бумаг</t>
+  </si>
+  <si>
+    <t>Автомобиль</t>
+  </si>
+  <si>
+    <t>Тетрадь</t>
+  </si>
+  <si>
+    <t>Полотенце</t>
+  </si>
+  <si>
+    <t>Альбом для монет</t>
+  </si>
+  <si>
+    <t>Пазлы</t>
+  </si>
+  <si>
+    <t>Мольберт</t>
+  </si>
+  <si>
+    <t>Кисть</t>
+  </si>
+  <si>
+    <t>Краски</t>
+  </si>
+  <si>
+    <t>Карандаш</t>
+  </si>
+  <si>
+    <t>Конструктор</t>
+  </si>
+  <si>
+    <t>Пластилин</t>
+  </si>
+  <si>
+    <t>Клей</t>
+  </si>
+  <si>
+    <t>Чернила</t>
+  </si>
+  <si>
+    <t>Ложка</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ _₽"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -343,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -353,253 +456,228 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="str">
-        <f ca="1">CHAR(RANDBETWEEN(192,255)) &amp; CHAR(RANDBETWEEN(192,255)) &amp; CHAR(RANDBETWEEN(192,255)) &amp; CHAR(RANDBETWEEN(192,255))</f>
-        <v>рЬЩЭ</v>
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="1">
         <f ca="1">RAND()*5000</f>
-        <v>1251.879227091528</v>
+        <v>2005.2790500637952</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="str">
-        <f t="shared" ref="A2:A25" ca="1" si="0">CHAR(RANDBETWEEN(192,255)) &amp; CHAR(RANDBETWEEN(192,255)) &amp; CHAR(RANDBETWEEN(192,255)) &amp; CHAR(RANDBETWEEN(192,255))</f>
-        <v>ПМеВ</v>
+      <c r="A2" t="s">
+        <v>1</v>
       </c>
       <c r="B2" s="1">
-        <f t="shared" ref="B2:B25" ca="1" si="1">RAND()*5000</f>
-        <v>3582.8068430800231</v>
+        <f t="shared" ref="B2:B25" ca="1" si="0">RAND()*5000</f>
+        <v>383.70328594431066</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>дшГы</v>
+      <c r="A3" t="s">
+        <v>2</v>
       </c>
       <c r="B3" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>1032.4947909827908</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2142.6260531805451</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>унющ</v>
+      <c r="A4" t="s">
+        <v>3</v>
       </c>
       <c r="B4" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>3037.962405321824</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>22.904847326078446</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>ГфяЙ</v>
+      <c r="A5" t="s">
+        <v>4</v>
       </c>
       <c r="B5" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>1955.5922379560236</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>968.86853515183725</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>тЪТЪ</v>
+      <c r="A6" t="s">
+        <v>5</v>
       </c>
       <c r="B6" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>1516.7492715409269</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2384.7886256138954</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>ьпЪт</v>
+      <c r="A7" t="s">
+        <v>6</v>
       </c>
       <c r="B7" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>2870.7459821335519</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4014.6165731812707</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>ЬЧтК</v>
+      <c r="A8" t="s">
+        <v>7</v>
       </c>
       <c r="B8" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>3321.6069872153321</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1451.0545815165149</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>ВщэТ</v>
+      <c r="A9" t="s">
+        <v>8</v>
       </c>
       <c r="B9" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>1144.1784666923099</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>621.81839797731232</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>юБжд</v>
+      <c r="A10" t="s">
+        <v>9</v>
       </c>
       <c r="B10" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>3020.2638547166489</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2072.9740141433422</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>иоИй</v>
+      <c r="A11" t="s">
+        <v>10</v>
       </c>
       <c r="B11" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>1499.8615307011621</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3010.0707167320988</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>хяМЖ</v>
+      <c r="A12" t="s">
+        <v>11</v>
       </c>
       <c r="B12" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>4912.6237362621659</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>255.02118045262367</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>риуа</v>
+      <c r="A13" t="s">
+        <v>12</v>
       </c>
       <c r="B13" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>1032.0017695921756</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>61.994061768240741</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>йЦоМ</v>
+      <c r="A14" t="s">
+        <v>13</v>
       </c>
       <c r="B14" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>3447.522087370156</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4432.111095951379</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>ГкЫв</v>
+      <c r="A15" t="s">
+        <v>14</v>
       </c>
       <c r="B15" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>4913.6224639767597</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3850.0631588063638</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>рПюЬ</v>
+      <c r="A16" t="s">
+        <v>15</v>
       </c>
       <c r="B16" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>2285.9074918760157</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2690.8258559034884</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>БцВВ</v>
+      <c r="A17" t="s">
+        <v>16</v>
       </c>
       <c r="B17" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>3595.0606401384839</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3007.0859694759165</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Ыоюд</v>
+      <c r="A18" t="s">
+        <v>17</v>
       </c>
       <c r="B18" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>2552.6055834030685</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2882.9520710394472</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>ИЛКС</v>
+      <c r="A19" t="s">
+        <v>18</v>
       </c>
       <c r="B19" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>1114.3497815828096</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1104.1084510251442</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>НШюь</v>
+      <c r="A20" t="s">
+        <v>19</v>
       </c>
       <c r="B20" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>1239.0785940330873</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>910.44467693532749</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>гФаж</v>
+      <c r="A21" t="s">
+        <v>20</v>
       </c>
       <c r="B21" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>623.12462453721571</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1811.194596901966</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>хйПЩ</v>
+      <c r="A22" t="s">
+        <v>21</v>
       </c>
       <c r="B22" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>4115.5775864202378</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2743.971204348687</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>ТЗТЕ</v>
+      <c r="A23" t="s">
+        <v>22</v>
       </c>
       <c r="B23" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>2595.5689195400746</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4936.8052343800618</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>ыЙта</v>
+      <c r="A24" t="s">
+        <v>23</v>
       </c>
       <c r="B24" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>3902.4817871034456</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>408.72083886875964</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>НЯКУ</v>
+      <c r="A25" t="s">
+        <v>24</v>
       </c>
       <c r="B25" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>1610.8495153059382</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>85.025217794837957</v>
       </c>
     </row>
   </sheetData>

--- a/Task3/in.xlsx
+++ b/Task3/in.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6510" yWindow="0" windowWidth="28800" windowHeight="12915"/>
+    <workbookView xWindow="7440" yWindow="0" windowWidth="28800" windowHeight="12915"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -446,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,8 +460,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <f ca="1">RAND()*5000</f>
-        <v>2005.2790500637952</v>
+        <v>3913.0387980236101</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -469,8 +468,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <f t="shared" ref="B2:B25" ca="1" si="0">RAND()*5000</f>
-        <v>383.70328594431066</v>
+        <v>1580.05911195423</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -478,8 +476,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2142.6260531805451</v>
+        <v>3183.5073379919299</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -487,8 +484,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>22.904847326078446</v>
+        <v>1942.8428646638299</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -496,8 +492,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>968.86853515183725</v>
+        <v>1435.9766155607001</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -505,8 +500,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2384.7886256138954</v>
+        <v>2805.03070615456</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -514,8 +508,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>4014.6165731812707</v>
+        <v>1959.3243692594201</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -523,8 +516,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1451.0545815165149</v>
+        <v>1361.16713375877</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -532,8 +524,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>621.81839797731232</v>
+        <v>4552.11358275168</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -541,8 +532,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2072.9740141433422</v>
+        <v>4196.6545317238697</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -550,8 +540,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>3010.0707167320988</v>
+        <v>3440.5138197772199</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -559,8 +548,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>255.02118045262367</v>
+        <v>2223.2793299401401</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -568,8 +556,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>61.994061768240741</v>
+        <v>2589.1601088150601</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -577,8 +564,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>4432.111095951379</v>
+        <v>2087.8455386139099</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -586,8 +572,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>3850.0631588063638</v>
+        <v>2532.3769796117299</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -595,8 +580,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2690.8258559034884</v>
+        <v>1162.1435903343699</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -604,8 +588,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>3007.0859694759165</v>
+        <v>821.65843884269805</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -613,8 +596,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2882.9520710394472</v>
+        <v>3511.287614284</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -622,8 +604,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1104.1084510251442</v>
+        <v>3400.4236914417102</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -631,8 +612,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>910.44467693532749</v>
+        <v>4316.5707436847397</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -640,8 +620,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1811.194596901966</v>
+        <v>190.46005457757801</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -649,8 +628,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2743.971204348687</v>
+        <v>4455.4081294838197</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -658,8 +636,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>4936.8052343800618</v>
+        <v>1744.0689389082499</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -667,8 +644,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>408.72083886875964</v>
+        <v>502.19511330516701</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -676,8 +652,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>85.025217794837957</v>
+        <v>2851.30223512669</v>
       </c>
     </row>
   </sheetData>
